--- a/数据库更变记录.xlsx
+++ b/数据库更变记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>序号</t>
   </si>
@@ -41,18 +41,30 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>TB_SALESORDERBILL</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>陈麒戈</t>
+  </si>
+  <si>
+    <t>根据系统设计业务重构字段</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +74,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,7 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,16 +118,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,14 +131,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -142,9 +146,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,8 +185,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,30 +203,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,19 +226,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +322,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,133 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,15 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -470,6 +466,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,15 +514,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,152 +537,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +690,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,12 +1046,20 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="23.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -1073,13 +1089,25 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43422</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -1288,7 +1316,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1305,7 +1333,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据库更变记录.xlsx
+++ b/数据库更变记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>序号</t>
   </si>
@@ -53,16 +53,19 @@
   <si>
     <t>根据系统设计业务重构字段</t>
   </si>
+  <si>
+    <t>TB_SALESORDERBILLENTRY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,28 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,6 +99,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,14 +151,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,17 +190,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,33 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,49 +229,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,127 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +434,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +472,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -490,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +516,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1049,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
@@ -1111,13 +1114,25 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43425</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
